--- a/02.Mobile_Web&App_Project/00.자료수집/리스트 예.xlsx
+++ b/02.Mobile_Web&App_Project/00.자료수집/리스트 예.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source_정성우\FED-PJ-WBS-JSW\02.Mobile_Web&amp;App_Project\00.자료수집\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="테이블 예" sheetId="1" r:id="rId1"/>
+    <sheet name="남성 카테고리" sheetId="2" r:id="rId2"/>
+    <sheet name="여성 카테고리" sheetId="3" r:id="rId3"/>
+    <sheet name="키즈 카테고리" sheetId="4" r:id="rId4"/>
+    <sheet name="홈 카테고리" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="127">
   <si>
     <t>대분류</t>
   </si>
@@ -125,18 +134,307 @@
   </si>
   <si>
     <t>비치 숍 폴로 베어 머그</t>
+  </si>
+  <si>
+    <t>브랜드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이즈</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double RL</t>
+  </si>
+  <si>
+    <t>RLX</t>
+  </si>
+  <si>
+    <t>Golf</t>
+  </si>
+  <si>
+    <t>의류</t>
+  </si>
+  <si>
+    <t>셔츠</t>
+  </si>
+  <si>
+    <t>티셔츠</t>
+  </si>
+  <si>
+    <t>후디 &amp; 스웨트셔츠</t>
+  </si>
+  <si>
+    <t>스웨터 &amp; 가디건</t>
+  </si>
+  <si>
+    <t>아우터웨어</t>
+  </si>
+  <si>
+    <t>블레이저</t>
+  </si>
+  <si>
+    <t>팬츠</t>
+  </si>
+  <si>
+    <t>반바지 &amp; 수영복</t>
+  </si>
+  <si>
+    <t>데님</t>
+  </si>
+  <si>
+    <t>RRL 데님</t>
+  </si>
+  <si>
+    <t>신발</t>
+  </si>
+  <si>
+    <t>스니커즈</t>
+  </si>
+  <si>
+    <t>캐주얼 슈즈</t>
+  </si>
+  <si>
+    <t>포멀 슈즈</t>
+  </si>
+  <si>
+    <t>부츠</t>
+  </si>
+  <si>
+    <t>슬리퍼</t>
+  </si>
+  <si>
+    <t>액세서리</t>
+  </si>
+  <si>
+    <t>시계</t>
+  </si>
+  <si>
+    <t>가방</t>
+  </si>
+  <si>
+    <t>지갑 &amp; 액세서리</t>
+  </si>
+  <si>
+    <t>모자, 스카프 &amp; 장갑</t>
+  </si>
+  <si>
+    <t>타이</t>
+  </si>
+  <si>
+    <t>선글라스</t>
+  </si>
+  <si>
+    <t>양말</t>
+  </si>
+  <si>
+    <t>언더웨어 &amp; 라운지웨어</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>Lauren</t>
+  </si>
+  <si>
+    <t>브랜드</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>셔츠 &amp; 블라우스</t>
+  </si>
+  <si>
+    <t>티셔츠 &amp; 탑</t>
+  </si>
+  <si>
+    <t>스커트</t>
+  </si>
+  <si>
+    <t>슬립웨어</t>
+  </si>
+  <si>
+    <t>샌들</t>
+  </si>
+  <si>
+    <t>플랫 &amp; 로퍼</t>
+  </si>
+  <si>
+    <t>힐</t>
+  </si>
+  <si>
+    <t>지갑</t>
+  </si>
+  <si>
+    <t>시계 &amp; 주얼리</t>
+  </si>
+  <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이즈</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>XS</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>XL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>남아</t>
+  </si>
+  <si>
+    <t>2-7세</t>
+  </si>
+  <si>
+    <t>8-18세</t>
+  </si>
+  <si>
+    <t>스웨터</t>
+  </si>
+  <si>
+    <t>팬츠 &amp; 쇼츠</t>
+  </si>
+  <si>
+    <t>신발 &amp; 액세서리</t>
+  </si>
+  <si>
+    <t>수영복</t>
+  </si>
+  <si>
+    <t>여아</t>
+  </si>
+  <si>
+    <t>2-6세</t>
+  </si>
+  <si>
+    <t>7-16세</t>
+  </si>
+  <si>
+    <t>탑 &amp; 셔츠</t>
+  </si>
+  <si>
+    <t>스커트 &amp; 팬츠</t>
+  </si>
+  <si>
+    <t>베이비</t>
+  </si>
+  <si>
+    <t>XS</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ralph Lauren home</t>
+  </si>
+  <si>
+    <t>Double RL home</t>
+  </si>
+  <si>
+    <t>Ralph's Coffee</t>
+  </si>
+  <si>
+    <t>다이닝</t>
+  </si>
+  <si>
+    <t>테이블 웨어</t>
+  </si>
+  <si>
+    <t>바 웨어</t>
+  </si>
+  <si>
+    <t>서브 웨어</t>
+  </si>
+  <si>
+    <t>리빙</t>
+  </si>
+  <si>
+    <t>블랭킷</t>
+  </si>
+  <si>
+    <t>인테리어 소품</t>
+  </si>
+  <si>
+    <t>캔들 &amp; 디퓨저</t>
+  </si>
+  <si>
+    <t>도서 &amp; 게임</t>
+  </si>
+  <si>
+    <t>프레임</t>
+  </si>
+  <si>
+    <t>배스</t>
+  </si>
+  <si>
+    <t>타월 &amp; 매트</t>
+  </si>
+  <si>
+    <t>라이프스타일</t>
+  </si>
+  <si>
+    <t>펫웨어</t>
+  </si>
+  <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OS(one size)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OS(one size)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이즈</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OS(one size)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -148,7 +446,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF6d6f73"/>
+      <color rgb="FF6D6F73"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -161,21 +459,48 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF041e3a"/>
+      <color rgb="FF041E3A"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF041e3a"/>
+      <color rgb="FF041E3A"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF6d6f73"/>
+      <color rgb="FF6D6F73"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF474747"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF041E3A"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -187,7 +512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFd0cece"/>
+        <fgColor rgb="FFD0CECE"/>
       </patternFill>
     </fill>
   </fills>
@@ -201,16 +526,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -222,68 +547,81 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -294,10 +632,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -335,71 +673,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,7 +765,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -450,11 +788,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -463,13 +801,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -479,7 +817,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -488,7 +826,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -497,7 +835,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -505,10 +843,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -579,21 +917,23 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="35.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="41.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -617,7 +957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="36">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -643,7 +983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
+    <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
@@ -667,7 +1007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
+    <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>19</v>
@@ -691,7 +1031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
+    <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
         <v>19</v>
@@ -715,7 +1055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
+    <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
         <v>27</v>
@@ -739,7 +1079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
+    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>27</v>
@@ -763,7 +1103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
+    <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
         <v>33</v>
@@ -787,7 +1127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -797,7 +1137,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -807,7 +1147,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -817,7 +1157,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -827,7 +1167,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -837,7 +1177,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -847,7 +1187,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -857,7 +1197,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -867,7 +1207,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -877,7 +1217,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -887,7 +1227,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -897,7 +1237,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -907,7 +1247,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -917,7 +1257,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -927,7 +1267,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -937,7 +1277,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -947,7 +1287,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -957,7 +1297,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -967,7 +1307,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -977,7 +1317,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -987,7 +1327,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -997,7 +1337,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1007,7 +1347,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1017,7 +1357,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1028,6 +1368,793 @@
       <c r="H32" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.ralphlauren.co.kr/men/purple-label?webcat=men%7cbrands-rd%7cPurple%20Label%20hub-rd&amp;orignalCatID=Purple%20Label%20hub-rd&amp;altrurlID=Purple%20Label%20hub-rd"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://www.ralphlauren.co.kr/men/polo-ralph-lauren?webcat=men%7cbrands-rd%7cmen-polo-ralph-lauren&amp;orignalCatID=men-polo-ralph-lauren&amp;altrurlID=men-polo-ralph-lauren"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://www.ralphlauren.co.kr/men/double-rl-1?webcat=men%7cbrands-rd%7cdouble-rl-men-hub-rd&amp;orignalCatID=double-rl-men-hub-rd&amp;altrurlID=double-rl-men-hub-rd"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://www.ralphlauren.co.kr/men/brands/rlx?webcat=men%7Cbrands-rd%7Cmen-rlx"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://www.ralphlauren.co.kr/content/golf?webcat=men%7cbrands-rd%7cmen-golf&amp;orignalCatID=men-golf&amp;altrurlID=men-golf"/>
+    <hyperlink ref="C4" r:id="rId6" display="https://www.ralphlauren.co.kr/men/clothing/polo-shirts?webcat=men%7Cclothing%7Cmen-clothing-poloshirts"/>
+    <hyperlink ref="C5" r:id="rId7" display="https://www.ralphlauren.co.kr/men/clothing/shirts?webcat=men%7Cclothing%7Cmen-clothing-shirts"/>
+    <hyperlink ref="C6" r:id="rId8" display="https://www.ralphlauren.co.kr/men/clothing/t-shirts?webcat=men%7Cclothing%7Cmen-clothing-t-shirts"/>
+    <hyperlink ref="C7" r:id="rId9" display="https://www.ralphlauren.co.kr/men/clothing/hoodies-sweatshirts?webcat=men%7Cclothing%7Cmen-clothing-hoodies-sweatshirts"/>
+    <hyperlink ref="C8" r:id="rId10" display="https://www.ralphlauren.co.kr/men/clothing/sweaters-cardigans?webcat=men%7Cclothing%7Cmen-clothing-jumpers-cardigans"/>
+    <hyperlink ref="C9" r:id="rId11" display="https://www.ralphlauren.co.kr/men/clothing/outerwears?webcat=men%7Cclothing%7Cmen-clothing-jackets-coats"/>
+    <hyperlink ref="C10" r:id="rId12" display="https://www.ralphlauren.co.kr/men/clothing/blazers?webcat=men%7Cclothing%7Cmen-clothing-blazers"/>
+    <hyperlink ref="C11" r:id="rId13" display="https://www.ralphlauren.co.kr/men/clothing/pants?webcat=men%7Cclothing%7Cmen-clothing-pants"/>
+    <hyperlink ref="C12" r:id="rId14" display="https://www.ralphlauren.co.kr/men/clothing/shorts-swimwear?webcat=men%7Cclothing%7Cmen-clothing-shorts"/>
+    <hyperlink ref="C13" r:id="rId15" display="https://www.ralphlauren.co.kr/men/clothing/jeans-1?webcat=men%7Cclothing%7Cmen-clothing-jeans"/>
+    <hyperlink ref="C14" r:id="rId16" display="https://www.ralphlauren.co.kr/men/clothing/jeans-2?webcat=men%7Cclothing%7Cmen-clothing-rrl-denim"/>
+    <hyperlink ref="C17" r:id="rId17" display="https://www.ralphlauren.co.kr/men/accessories/shoes/men-shoes-trainers-1?webcat=men%7Cshoes-1%7Cmen-shoes-trainers-1"/>
+    <hyperlink ref="C18" r:id="rId18" display="https://www.ralphlauren.co.kr/men/accessories/shoes/men-shoes-casual-shoes-1?webcat=men%7Cshoes-1%7Cmen-shoes-casual-shoes-1"/>
+    <hyperlink ref="C19" r:id="rId19" display="https://www.ralphlauren.co.kr/men/accessories/shoes/men-shoes-dress-shoes-1?webcat=men%7Cshoes-1%7Cmen-shoes-dress-shoes-1"/>
+    <hyperlink ref="C20" r:id="rId20" display="https://www.ralphlauren.co.kr/men/accessories/shoes/men-shoes-boots-1?webcat=men%7Cshoes-1%7Cmen-shoes-boots-1"/>
+    <hyperlink ref="C21" r:id="rId21" display="https://www.ralphlauren.co.kr/men/accessories/shoes/men-shoes-sandals-flip-flops-1?webcat=men%7Cshoes-1%7Cmen-shoes-sandals-flip-flops-1"/>
+    <hyperlink ref="C24" r:id="rId22" display="https://www.ralphlauren.co.kr/men/accessories/watches?webcat=men%7Caccessories%7Cmen-accessories-watches"/>
+    <hyperlink ref="C25" r:id="rId23" display="https://www.ralphlauren.co.kr/men/accessories/bags?webcat=men%7Caccessories%7Cmen-accessories-bags-luggage"/>
+    <hyperlink ref="C26" r:id="rId24" display="https://www.ralphlauren.co.kr/men/accessories/small-accessories?webcat=men%7Caccessories%7Cmen-accessories-small-accessories"/>
+    <hyperlink ref="C27" r:id="rId25" display="https://www.ralphlauren.co.kr/men/accessories/belts-braces?webcat=men%7Caccessories%7Cmen-accessories-belts-braces"/>
+    <hyperlink ref="C28" r:id="rId26" display="https://www.ralphlauren.co.kr/men/accessories/hats-gloves-scarves?webcat=men%7Caccessories%7Cmen-caps-hats-scarves-gloves"/>
+    <hyperlink ref="C29" r:id="rId27" display="https://www.ralphlauren.co.kr/men/accessories/ties-bow-ties?webcat=men%7Caccessories%7Cmen-accessories-ties-bowties-pocket-squares"/>
+    <hyperlink ref="C30" r:id="rId28" display="https://www.ralphlauren.co.kr/men/accessories/sunglasses?webcat=men%7Caccessories%7Cmen-accessories-sunglasses"/>
+    <hyperlink ref="C31" r:id="rId29" display="https://www.ralphlauren.co.kr/men/accessories/socks?webcat=men%7Caccessories%7Cmen-accessories-socks"/>
+    <hyperlink ref="C32" r:id="rId30" display="https://www.ralphlauren.co.kr/men/accessories/loungewear-underwear?webcat=men%7Caccessories%7Cmen-accessories-loungewear-sleepwear"/>
+    <hyperlink ref="C23" r:id="rId31" display="https://www.ralphlauren.co.kr/men/accessories?webcat=men-accessories"/>
+    <hyperlink ref="C16" r:id="rId32" display="https://www.ralphlauren.co.kr/men/accessories/shoes-1?webcat=men-shoes-1"/>
+    <hyperlink ref="C3" r:id="rId33" display="https://www.ralphlauren.co.kr/men/clothing?webcat=men-clothing"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="17"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.ralphlauren.co.kr/women/collection?webcat=women%7cbrands-rd%7cCollection%20hub-rd&amp;orignalCatID=Collection%20hub-rd&amp;altrurlID=Collection%20hub-rd"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://www.ralphlauren.co.kr/women/polo-ralph-lauren?webcat=women%7cbrands-rd%7cPRL%20hub-rd&amp;orignalCatID=PRL%20hub-rd&amp;altrurlID=PRL%20hub-rd"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://www.ralphlauren.co.kr/women/lauren-ralph-lauren?webcat=women%7cbrands-rd%7cLauren-hub-rd&amp;orignalCatID=Lauren-hub-rd&amp;altrurlID=Lauren-hub-rd"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://www.ralphlauren.co.kr/women/double-rl-2?webcat=women%7cbrands-rd%7cDouble%20rl-women-hub-rd&amp;orignalCatID=Double%20rl-women-hub-rd&amp;altrurlID=Double%20rl-women-hub-rd"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://www.ralphlauren.co.kr/women/brands/rlx?webcat=women%7Cbrands-rd%7Cwomen-RLX"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://www.ralphlauren.co.kr/women/brands/golf?webcat=women%7Cbrands-rd%7Cwomen-golf"/>
+    <hyperlink ref="C3" r:id="rId7" display="https://www.ralphlauren.co.kr/women/clothing?webcat=women-clothing"/>
+    <hyperlink ref="C4" r:id="rId8" display="https://www.ralphlauren.co.kr/women/clothing/polo-shirts?webcat=women%7Cclothing%7Cwomen-clothing-poloshirts"/>
+    <hyperlink ref="C5" r:id="rId9" display="https://www.ralphlauren.co.kr/women/clothing/shirts-blouses?webcat=women%7Cclothing%7Cwomen-clothing-shirts-blouses"/>
+    <hyperlink ref="C6" r:id="rId10" display="https://www.ralphlauren.co.kr/women/clothing/t-shirts-tops?webcat=women%7Cclothing%7Cwomen-clothing-tees"/>
+    <hyperlink ref="C7" r:id="rId11" display="https://www.ralphlauren.co.kr/women/clothing/hoodies-sweatshirts?webcat=women%7Cclothing%7Cwomen-clothing-sweatshirts"/>
+    <hyperlink ref="C8" r:id="rId12" display="https://www.ralphlauren.co.kr/women/clothing/sweaters-cardigans?webcat=women%7Cclothing%7Cwomen-jumpers-cardigans"/>
+    <hyperlink ref="C9" r:id="rId13" display="https://www.ralphlauren.co.kr/women/clothing/outerwear?webcat=women%7Cclothing%7Cwomen-clothing-coats"/>
+    <hyperlink ref="C10" r:id="rId14" display="https://www.ralphlauren.co.kr/women/clothing/dresses?webcat=women%7Cclothing%7Cwomen-clothing-dresses"/>
+    <hyperlink ref="C11" r:id="rId15" display="https://www.ralphlauren.co.kr/women/clothing/skirts?webcat=women%7Cclothing%7Cwomen-clothing-skirts"/>
+    <hyperlink ref="C12" r:id="rId16" display="https://www.ralphlauren.co.kr/women/clothing/pants?webcat=women%7Cclothing%7Cwomen-clothing-trousers"/>
+    <hyperlink ref="C13" r:id="rId17" display="https://www.ralphlauren.co.kr/women/clothing/jeans?webcat=women%7Cclothing%7Cwomen-clothing-jeans"/>
+    <hyperlink ref="C14" r:id="rId18" display="https://www.ralphlauren.co.kr/women/clothing/sleepwear?webcat=women%7Cclothing%7Cwomen-clothing-sleepwear"/>
+    <hyperlink ref="C16" r:id="rId19" display="https://www.ralphlauren.co.kr/women/accessories/shoes-1?webcat=women-shoes-1"/>
+    <hyperlink ref="C17" r:id="rId20" display="https://www.ralphlauren.co.kr/women/accessories/shoes/trainers-1?webcat=women%7Cshoes-1%7Cwomen-shoes-trainers-1"/>
+    <hyperlink ref="C18" r:id="rId21" display="https://www.ralphlauren.co.kr/women/accessories/shoes/sandals-2?webcat=women%7Cshoes-1%7Cwomen-shoes-sandals-espadrilles-1"/>
+    <hyperlink ref="C19" r:id="rId22" display="https://www.ralphlauren.co.kr/women/accessories/shoes/flats-1?webcat=women%7Cshoes-1%7Cwomen-shoes-flats-1"/>
+    <hyperlink ref="C20" r:id="rId23" display="https://www.ralphlauren.co.kr/women/accessories/shoes/heels-1?webcat=women%7Cshoes-1%7Cwomen-shoes-heels-1"/>
+    <hyperlink ref="C21" r:id="rId24" display="https://www.ralphlauren.co.kr/women/accessories/shoes/boots-1?webcat=women%7Cshoes-1%7Cwomen-shoes-boots-1"/>
+    <hyperlink ref="C23" r:id="rId25" display="https://www.ralphlauren.co.kr/women/accessories?webcat=women-accessories"/>
+    <hyperlink ref="C24" r:id="rId26" display="https://www.ralphlauren.co.kr/women/accessories/hats-gloves-scarves?webcat=women%7Caccessories%7Cwomen-accessories-scarves-hats-gloves"/>
+    <hyperlink ref="C25" r:id="rId27" display="https://www.ralphlauren.co.kr/women/accessories/bags?webcat=women%7Caccessories%7Cwomen-accessories-bags"/>
+    <hyperlink ref="C26" r:id="rId28" display="https://www.ralphlauren.co.kr/women/accessories/wallets-purses?webcat=women%7Caccessories%7Cwomen-accessories-wallets-purses"/>
+    <hyperlink ref="C27" r:id="rId29" display="https://www.ralphlauren.co.kr/women/accessories/belts?webcat=women%7Caccessories%7Cwomen-accessories-belts"/>
+    <hyperlink ref="C28" r:id="rId30" display="https://www.ralphlauren.co.kr/women/accessories/watches-jewellery?webcat=women%7Caccessories%7Cwomen-accessories-jewellery"/>
+    <hyperlink ref="C29" r:id="rId31" display="https://www.ralphlauren.co.kr/women/accessories/sunglasses?webcat=women%7Caccessories%7Cwomen-accessories-sunglasses"/>
+    <hyperlink ref="C30" r:id="rId32" display="https://www.ralphlauren.co.kr/women/accessories/socks?webcat=women%7Caccessories%7Cwomen-accessories-socks-hosiery"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="24.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://www.ralphlauren.co.kr/kids/boys?webcat=boys-shop-all"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.ralphlauren.co.kr/kids/boys/boys-2-7-years?webcat=boys%7Cshop-all%7Cboys-2-7-years"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://www.ralphlauren.co.kr/kids/boys/boys-8-18-years?webcat=boys%7Cshop-all%7Cboys-8-20-years"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://www.ralphlauren.co.kr/kids/boys/polo-shirts?webcat=boys%7Cshop-all%7Cboys-polo-shirts"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://www.ralphlauren.co.kr/kids/boys/shirts?webcat=boys%7Cshop-all%7Cboys-shirts"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://www.ralphlauren.co.kr/kids/boys/t-shirts?webcat=boys%7Cshop-all%7Cboys-t-shirts"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://www.ralphlauren.co.kr/kids/boys/hoodies-sweatshirts?webcat=boys%7Cshop-all%7Cboys-hoodies-sweatshirts"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://www.ralphlauren.co.kr/kids/boys/sweaters?webcat=boys%7Cshop-all%7Cboys-jumpers-cardigans"/>
+    <hyperlink ref="B10" r:id="rId9" display="https://www.ralphlauren.co.kr/kids/boys/outerwear-2?webcat=boys%7Cshop-all%7Cboys-jackets-coats"/>
+    <hyperlink ref="B11" r:id="rId10" display="https://www.ralphlauren.co.kr/kids/boys/pants-shorts?webcat=boys%7Cshop-all%7Cboys-trousers-shorts"/>
+    <hyperlink ref="B12" r:id="rId11" display="https://www.ralphlauren.co.kr/kids/boys/shoes-accessories?webcat=boys%7Cshop-all%7Cboys-shoes-accessories"/>
+    <hyperlink ref="B13" r:id="rId12" display="https://www.ralphlauren.co.kr/%ED%82%A4%EC%A6%88-%EB%B2%A0%EC%9D%B4%EB%B9%84/%EB%82%A8%EC%95%84/%EC%88%98%EC%98%81%EB%B3%B5?webcat=boys%7Cshop-all%7Cboys-swimwear"/>
+    <hyperlink ref="C1" r:id="rId13" display="https://www.ralphlauren.co.kr/kids/girls?webcat=girls-shop-all"/>
+    <hyperlink ref="C3" r:id="rId14" display="https://www.ralphlauren.co.kr/kids/girls/girls-2-6-years?webcat=girls%7Cshop-all%7Cgirls-2-6x-years"/>
+    <hyperlink ref="C4" r:id="rId15" display="https://www.ralphlauren.co.kr/kids/girls/girls-7-16-years?webcat=girls%7Cshop-all%7Cgirls-7-16-years"/>
+    <hyperlink ref="C5" r:id="rId16" display="https://www.ralphlauren.co.kr/kids/girls/polo-shirts?webcat=girls%7Cshop-all%7Cgirls-polo-shirts"/>
+    <hyperlink ref="C6" r:id="rId17" display="https://www.ralphlauren.co.kr/kids/girls/tops-shirts?webcat=girls%7Cshop-all%7Cgirls-tops-shirts"/>
+    <hyperlink ref="C7" r:id="rId18" display="https://www.ralphlauren.co.kr/kids/girls/sweaters?webcat=girls%7Cshop-all%7Cgirls-jumpers-cardigans"/>
+    <hyperlink ref="C8" r:id="rId19" display="https://www.ralphlauren.co.kr/kids/girls/outerwear?webcat=girls%7Cshop-all%7Cgirls-jackets-coats"/>
+    <hyperlink ref="C9" r:id="rId20" display="https://www.ralphlauren.co.kr/kids/girls/dresses?webcat=girls%7Cshop-all%7Cgirls-dresses"/>
+    <hyperlink ref="C10" r:id="rId21" display="https://www.ralphlauren.co.kr/kids/girls/skirts-pants?webcat=girls%7Cshop-all%7Cgirls-skirts-pants"/>
+    <hyperlink ref="C11" r:id="rId22" display="https://www.ralphlauren.co.kr/kids/girls/shoes-accessories?webcat=girls%7Cshop-all%7Cgirls-shoes-accessories"/>
+    <hyperlink ref="D1" r:id="rId23" display="https://www.ralphlauren.co.kr/kids/baby?webcat=baby"/>
+    <hyperlink ref="D3" r:id="rId24" display="https://www.ralphlauren.co.kr/kids/baby/baby-boy?webcat=baby%7Cbaby-boy"/>
+    <hyperlink ref="D4" r:id="rId25" display="https://www.ralphlauren.co.kr/kids/baby/baby-girl?webcat=baby%7Cbaby-girl"/>
+    <hyperlink ref="D5" r:id="rId26" display="https://www.ralphlauren.co.kr/kids/baby/shoes-accessories?webcat=baby%7Cbaby-shoes-accessories"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="19"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.ralphlauren.co.kr/home/explore/home-ralph-lauren-home?webcat=home%7Cfeatures%7Chome-ralph-lauren-home"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://www.ralphlauren.co.kr/home/explore/polo-ralph-lauren-home?webcat=home%7Cfeatures%7Chome-polo-ralph-lauren"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://www.ralphlauren.co.kr/home/explore/double-rl-home?webcat=home%7Cfeatures%7Chome-double-rl-home"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://www.ralphlauren.co.kr/home/explore/ralphs-coffee?webcat=home%7Cfeatures%7Chome-ralphs-coffee"/>
+    <hyperlink ref="C3" r:id="rId5" display="https://www.ralphlauren.co.kr/home/dining?webcat=home-dining-entertaining"/>
+    <hyperlink ref="C4" r:id="rId6" display="https://www.ralphlauren.co.kr/home/dining/tableware?webcat=home%7Cdining-entertaining%7Chome-dining-entertaining-tabletop"/>
+    <hyperlink ref="C5" r:id="rId7" display="https://www.ralphlauren.co.kr/home/dining/barware-accessories?webcat=home%7Cdining-entertaining%7Chome-dining-entertaining-barware"/>
+    <hyperlink ref="C6" r:id="rId8" display="https://www.ralphlauren.co.kr/home/dining/serveware?webcat=home%7Cdining-entertaining%7Chome-dining-entertaining-serveware"/>
+    <hyperlink ref="C8" r:id="rId9" display="https://www.ralphlauren.co.kr/home/decor?webcat=home-decor"/>
+    <hyperlink ref="C9" r:id="rId10" display="https://www.ralphlauren.co.kr/home/decor/throws?webcat=home%7Cdecor%7Chome-decor-throws"/>
+    <hyperlink ref="C10" r:id="rId11" display="https://www.ralphlauren.co.kr/home/decor/decorative-accessories?webcat=home%7Cdecor%7Chome-decor-decorative-accessories"/>
+    <hyperlink ref="C11" r:id="rId12" display="https://www.ralphlauren.co.kr/home/decor/candles-hurricanes?webcat=home%7Cdecor%7Chome-decor-candles-hurricanes"/>
+    <hyperlink ref="C12" r:id="rId13" display="https://www.ralphlauren.co.kr/home/decor/books?webcat=home%7Cdecor%7Chome-decor-books"/>
+    <hyperlink ref="C13" r:id="rId14" display="https://www.ralphlauren.co.kr/home/decor/frames?webcat=home%7Cdecor%7Chome-decor-frames"/>
+    <hyperlink ref="C15" r:id="rId15" display="https://www.ralphlauren.co.kr/home/bath?webcat=home-bath"/>
+    <hyperlink ref="C16" r:id="rId16" display="https://www.ralphlauren.co.kr/home/bath/towels-bath-mats?webcat=home%7Cbath%7Chome-bath-bath-beach-towels"/>
+    <hyperlink ref="C18" r:id="rId17" display="https://www.ralphlauren.co.kr/home/other?webcat=home-other"/>
+    <hyperlink ref="C19" r:id="rId18" display="https://www.ralphlauren.co.kr/home/other/for-the-pup?webcat=home%7Cother%7Chome-decor-forthepup"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>